--- a/import/prep/excel/63-8ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มีค63 (1-31พค63).xlsx
+++ b/import/prep/excel/63-8ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มีค63 (1-31พค63).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC310882-BC18-DF41-9305-B014925FD741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958345C-0A93-1844-8862-F7C504C15D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="50140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$R$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AA$253</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11669,7 +11669,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11721,6 +11721,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11844,7 +11850,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12204,6 +12210,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12222,12 +12246,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12243,19 +12261,28 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -68942,8 +68969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="D251" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R258" sqref="R258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -68970,25 +68997,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>3449</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
       <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
@@ -69025,7 +69052,7 @@
       <c r="C3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="150" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="137" t="s">
@@ -69035,35 +69062,35 @@
       <c r="G3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="153" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="135"/>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="151" t="s">
+      <c r="L3" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="149" t="s">
+      <c r="O3" s="143" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="158" t="s">
+      <c r="R3" s="147" t="s">
         <v>19</v>
       </c>
     </row>
@@ -69071,25 +69098,25 @@
       <c r="A4" s="137"/>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
-      <c r="D4" s="144"/>
+      <c r="D4" s="150"/>
       <c r="E4" s="137"/>
       <c r="F4" s="64"/>
       <c r="G4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="136"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
       <c r="P4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="159"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="148"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="52">
@@ -83140,61 +83167,61 @@
       <c r="R238" s="77"/>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A239" s="52">
+      <c r="A239" s="161">
         <v>235</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="162" t="s">
         <v>3712</v>
       </c>
-      <c r="C239" s="26" t="s">
+      <c r="C239" s="163" t="s">
         <v>3775</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="162" t="s">
         <v>2334</v>
       </c>
-      <c r="E239" s="67" t="s">
+      <c r="E239" s="164" t="s">
         <v>2335</v>
       </c>
-      <c r="F239" s="67" t="s">
+      <c r="F239" s="164" t="s">
         <v>2336</v>
       </c>
-      <c r="G239" s="103" t="s">
+      <c r="G239" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H239" s="104">
-        <v>0</v>
-      </c>
-      <c r="I239" s="105">
-        <v>0</v>
-      </c>
-      <c r="J239" s="105">
+      <c r="H239" s="165">
+        <v>0</v>
+      </c>
+      <c r="I239" s="166">
+        <v>0</v>
+      </c>
+      <c r="J239" s="166">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K239" s="106">
+      <c r="K239" s="167">
         <v>58</v>
       </c>
-      <c r="L239" s="68">
+      <c r="L239" s="166">
         <f t="shared" si="34"/>
         <v>203</v>
       </c>
-      <c r="M239" s="68">
+      <c r="M239" s="166">
         <f t="shared" si="35"/>
         <v>14.21</v>
       </c>
-      <c r="N239" s="6">
+      <c r="N239" s="168">
         <f t="shared" si="33"/>
         <v>217.21</v>
       </c>
-      <c r="O239" s="68">
+      <c r="O239" s="166">
         <f t="shared" si="28"/>
         <v>14.21</v>
       </c>
-      <c r="P239" s="68">
+      <c r="P239" s="166">
         <f t="shared" si="36"/>
         <v>217.21</v>
       </c>
-      <c r="Q239" s="68">
+      <c r="Q239" s="166">
         <v>0</v>
       </c>
       <c r="R239" s="77"/>
@@ -84291,61 +84318,61 @@
       <c r="R257" s="77"/>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A258" s="52">
+      <c r="A258" s="161">
         <v>254</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="162" t="s">
         <v>3837</v>
       </c>
-      <c r="C258" s="26" t="s">
+      <c r="C258" s="163" t="s">
         <v>3824</v>
       </c>
-      <c r="D258" s="133" t="s">
+      <c r="D258" s="169" t="s">
         <v>2246</v>
       </c>
-      <c r="E258" s="67" t="s">
+      <c r="E258" s="164" t="s">
         <v>2247</v>
       </c>
-      <c r="F258" s="67" t="s">
+      <c r="F258" s="164" t="s">
         <v>2235</v>
       </c>
-      <c r="G258" s="103" t="s">
+      <c r="G258" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H258" s="104">
-        <v>0</v>
-      </c>
-      <c r="I258" s="105">
-        <v>0</v>
-      </c>
-      <c r="J258" s="105">
+      <c r="H258" s="165">
+        <v>0</v>
+      </c>
+      <c r="I258" s="166">
+        <v>0</v>
+      </c>
+      <c r="J258" s="166">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K258" s="106">
+      <c r="K258" s="167">
         <v>66</v>
       </c>
-      <c r="L258" s="68">
+      <c r="L258" s="166">
         <f t="shared" si="40"/>
         <v>231</v>
       </c>
-      <c r="M258" s="68">
+      <c r="M258" s="166">
         <f t="shared" si="37"/>
         <v>16.170000000000002</v>
       </c>
-      <c r="N258" s="6">
+      <c r="N258" s="168">
         <f t="shared" si="38"/>
         <v>247.17</v>
       </c>
-      <c r="O258" s="68">
+      <c r="O258" s="166">
         <f t="shared" si="28"/>
         <v>16.170000000000002</v>
       </c>
-      <c r="P258" s="68">
+      <c r="P258" s="166">
         <f t="shared" si="39"/>
         <v>247.17</v>
       </c>
-      <c r="Q258" s="68">
+      <c r="Q258" s="166">
         <v>0</v>
       </c>
       <c r="R258" s="77"/>
@@ -84411,61 +84438,61 @@
       <c r="R259" s="77"/>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A260" s="52">
+      <c r="A260" s="161">
         <v>256</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="162" t="s">
         <v>3837</v>
       </c>
-      <c r="C260" s="26" t="s">
+      <c r="C260" s="163" t="s">
         <v>3826</v>
       </c>
-      <c r="D260" s="133" t="s">
+      <c r="D260" s="169" t="s">
         <v>2248</v>
       </c>
-      <c r="E260" s="67" t="s">
+      <c r="E260" s="164" t="s">
         <v>2247</v>
       </c>
-      <c r="F260" s="67" t="s">
+      <c r="F260" s="164" t="s">
         <v>2235</v>
       </c>
-      <c r="G260" s="103" t="s">
+      <c r="G260" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H260" s="104">
-        <v>0</v>
-      </c>
-      <c r="I260" s="105">
-        <v>0</v>
-      </c>
-      <c r="J260" s="105">
+      <c r="H260" s="165">
+        <v>0</v>
+      </c>
+      <c r="I260" s="166">
+        <v>0</v>
+      </c>
+      <c r="J260" s="166">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K260" s="106">
+      <c r="K260" s="167">
         <v>383</v>
       </c>
-      <c r="L260" s="68">
+      <c r="L260" s="166">
         <f t="shared" si="40"/>
         <v>1340.5</v>
       </c>
-      <c r="M260" s="68">
+      <c r="M260" s="166">
         <f t="shared" si="37"/>
         <v>93.83</v>
       </c>
-      <c r="N260" s="6">
+      <c r="N260" s="168">
         <f t="shared" si="38"/>
         <v>1434.33</v>
       </c>
-      <c r="O260" s="68">
+      <c r="O260" s="166">
         <f t="shared" si="28"/>
         <v>93.83</v>
       </c>
-      <c r="P260" s="68">
+      <c r="P260" s="166">
         <f t="shared" si="39"/>
         <v>1434.33</v>
       </c>
-      <c r="Q260" s="68">
+      <c r="Q260" s="166">
         <v>0</v>
       </c>
       <c r="R260" s="77"/>
@@ -85199,11 +85226,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -85214,6 +85236,11 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -85224,8 +85251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -85254,25 +85281,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>3448</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
       <c r="R1" s="55"/>
       <c r="S1" s="97"/>
       <c r="T1" s="97"/>
@@ -85315,7 +85342,7 @@
       <c r="C3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="150" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="137" t="s">
@@ -85325,47 +85352,47 @@
       <c r="G3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="153" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="135"/>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="151" t="s">
+      <c r="L3" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="149" t="s">
+      <c r="M3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="149" t="s">
+      <c r="O3" s="143" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="156" t="s">
+      <c r="Q3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="158" t="s">
+      <c r="R3" s="147" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="160">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="154" t="s">
+      <c r="T3" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="155" t="s">
+      <c r="V3" s="159" t="s">
         <v>20</v>
       </c>
     </row>
@@ -85373,29 +85400,29 @@
       <c r="A4" s="137"/>
       <c r="B4" s="137"/>
       <c r="C4" s="137"/>
-      <c r="D4" s="144"/>
+      <c r="D4" s="150"/>
       <c r="E4" s="137"/>
       <c r="F4" s="99"/>
       <c r="G4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="148"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="136"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
       <c r="P4" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="159"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="148"/>
       <c r="S4" s="160"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="155"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="159"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="52">
@@ -88987,61 +89014,61 @@
       <c r="V60" s="76"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A61" s="52">
+      <c r="A61" s="161">
         <v>57</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="162" t="s">
         <v>3712</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="163" t="s">
         <v>3785</v>
       </c>
-      <c r="D61" s="133" t="s">
+      <c r="D61" s="169" t="s">
         <v>2787</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="164" t="s">
         <v>2788</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="F61" s="164" t="s">
         <v>2789</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="162" t="s">
         <v>3224</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="165">
         <v>32</v>
       </c>
-      <c r="I61" s="68">
+      <c r="I61" s="166">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J61" s="68">
+      <c r="J61" s="166">
         <f t="shared" si="1"/>
         <v>34.24</v>
       </c>
-      <c r="K61" s="69">
-        <v>0</v>
-      </c>
-      <c r="L61" s="68">
+      <c r="K61" s="167">
+        <v>0</v>
+      </c>
+      <c r="L61" s="166">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M61" s="68">
+      <c r="M61" s="166">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="168">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O61" s="68">
+      <c r="O61" s="166">
         <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="P61" s="68">
+      <c r="P61" s="166">
         <f t="shared" si="3"/>
         <v>34.24</v>
       </c>
-      <c r="Q61" s="68">
+      <c r="Q61" s="166">
         <v>0</v>
       </c>
       <c r="R61" s="77"/>
@@ -89051,61 +89078,61 @@
       <c r="V61" s="76"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A62" s="52">
+      <c r="A62" s="161">
         <v>58</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="162" t="s">
         <v>3712</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="163" t="s">
         <v>3786</v>
       </c>
-      <c r="D62" s="133" t="s">
+      <c r="D62" s="169" t="s">
         <v>2787</v>
       </c>
-      <c r="E62" s="67" t="s">
+      <c r="E62" s="164" t="s">
         <v>2788</v>
       </c>
-      <c r="F62" s="67" t="s">
+      <c r="F62" s="164" t="s">
         <v>2789</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="68">
-        <v>0</v>
-      </c>
-      <c r="J62" s="68">
+      <c r="H62" s="165">
+        <v>0</v>
+      </c>
+      <c r="I62" s="166">
+        <v>0</v>
+      </c>
+      <c r="J62" s="166">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="69">
+      <c r="K62" s="167">
         <v>12</v>
       </c>
-      <c r="L62" s="68">
+      <c r="L62" s="166">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="M62" s="68">
+      <c r="M62" s="166">
         <f t="shared" si="4"/>
         <v>3.36</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62" s="168">
         <f t="shared" si="5"/>
         <v>51.36</v>
       </c>
-      <c r="O62" s="68">
+      <c r="O62" s="166">
         <f t="shared" si="2"/>
         <v>3.36</v>
       </c>
-      <c r="P62" s="68">
+      <c r="P62" s="166">
         <f t="shared" si="3"/>
         <v>51.36</v>
       </c>
-      <c r="Q62" s="68">
+      <c r="Q62" s="166">
         <v>0</v>
       </c>
       <c r="R62" s="77"/>
@@ -90923,15 +90950,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -90942,6 +90960,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/import/prep/excel/63-8ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มีค63 (1-31พค63).xlsx
+++ b/import/prep/excel/63-8ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ มีค63 (1-31พค63).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Works/WMA201AM1/import/prep/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958345C-0A93-1844-8862-F7C504C15D85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CB933-CB99-AD43-9F57-B4A88A5C4EB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">type2!$A$4:$R$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">type3!$A$4:$AA$253</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11850,7 +11850,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12194,76 +12194,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12283,6 +12213,79 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12598,22 +12601,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="147" t="s">
         <v>3210</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="111"/>
@@ -12635,25 +12638,25 @@
       <c r="Q2" s="116"/>
     </row>
     <row r="3" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="146" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="146" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="150" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="112" t="s">
@@ -12662,48 +12665,48 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="137" t="s">
+      <c r="J3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="146" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="149" t="s">
         <v>39</v>
       </c>
       <c r="O3" s="117"/>
     </row>
     <row r="4" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="110" t="s">
         <v>2441</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="141"/>
+      <c r="G4" s="150"/>
       <c r="H4" s="112" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="140"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="149"/>
       <c r="O4" s="117"/>
       <c r="Q4" s="118" t="s">
         <v>3211</v>
@@ -55728,21 +55731,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="148" t="s">
         <v>3403</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
       <c r="N1" s="24"/>
       <c r="O1" s="113"/>
     </row>
@@ -55764,25 +55767,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="146" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="D3" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="146" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="G3" s="150" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="112" t="s">
@@ -55791,47 +55794,47 @@
       <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="137" t="s">
+      <c r="J3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="146" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="M3" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="149" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="110" t="s">
         <v>2441</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="141"/>
+      <c r="G4" s="150"/>
       <c r="H4" s="112" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
       <c r="L4" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="140"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="149"/>
       <c r="Q4" s="124"/>
       <c r="R4" s="125" t="s">
         <v>3211</v>
@@ -68969,8 +68972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X284"/>
   <sheetViews>
-    <sheetView topLeftCell="D251" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R258" sqref="R258"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V241" sqref="V241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -68997,25 +69000,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="152" t="s">
         <v>3449</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
       <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
@@ -69043,80 +69046,80 @@
       <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="146" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="61"/>
       <c r="G3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="156" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="135"/>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="143" t="s">
+      <c r="M3" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="143" t="s">
+      <c r="O3" s="158" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="R3" s="164" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="137"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="64"/>
       <c r="G4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="154"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="157"/>
       <c r="J4" s="136"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
       <c r="P4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="148"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="165"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="52">
@@ -82326,7 +82329,7 @@
       </c>
       <c r="R224" s="77"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A225" s="52">
         <v>221</v>
       </c>
@@ -82386,7 +82389,7 @@
       </c>
       <c r="R225" s="77"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A226" s="52">
         <v>222</v>
       </c>
@@ -82446,7 +82449,7 @@
       </c>
       <c r="R226" s="77"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A227" s="52">
         <v>223</v>
       </c>
@@ -82506,7 +82509,7 @@
       </c>
       <c r="R227" s="77"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A228" s="52">
         <v>224</v>
       </c>
@@ -82566,7 +82569,7 @@
       </c>
       <c r="R228" s="77"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A229" s="52">
         <v>225</v>
       </c>
@@ -82626,7 +82629,7 @@
       </c>
       <c r="R229" s="77"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A230" s="52">
         <v>226</v>
       </c>
@@ -82686,7 +82689,7 @@
       </c>
       <c r="R230" s="77"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A231" s="52">
         <v>227</v>
       </c>
@@ -82746,7 +82749,7 @@
       </c>
       <c r="R231" s="77"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A232" s="52">
         <v>228</v>
       </c>
@@ -82806,7 +82809,7 @@
       </c>
       <c r="R232" s="77"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A233" s="52">
         <v>229</v>
       </c>
@@ -82866,7 +82869,7 @@
       </c>
       <c r="R233" s="77"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A234" s="52">
         <v>230</v>
       </c>
@@ -82926,7 +82929,7 @@
       </c>
       <c r="R234" s="77"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A235" s="52">
         <v>231</v>
       </c>
@@ -82986,7 +82989,7 @@
       </c>
       <c r="R235" s="77"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A236" s="52">
         <v>232</v>
       </c>
@@ -83046,7 +83049,7 @@
       </c>
       <c r="R236" s="77"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A237" s="52">
         <v>233</v>
       </c>
@@ -83106,7 +83109,7 @@
       </c>
       <c r="R237" s="77"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A238" s="52">
         <v>234</v>
       </c>
@@ -83161,72 +83164,79 @@
         <f t="shared" ref="P238:P244" si="36">ROUNDDOWN(H238+I238+N238,2)</f>
         <v>183.5</v>
       </c>
-      <c r="Q238" s="68">
+      <c r="Q238" s="72">
+        <v>183.5</v>
+      </c>
+      <c r="R238" s="77"/>
+      <c r="S238" s="31">
+        <f>SUM(Q238:Q239)</f>
         <v>400.75</v>
       </c>
-      <c r="R238" s="77"/>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A239" s="161">
+      <c r="T238" s="68">
+        <v>400.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A239" s="52">
         <v>235</v>
       </c>
-      <c r="B239" s="162" t="s">
+      <c r="B239" s="3" t="s">
         <v>3712</v>
       </c>
-      <c r="C239" s="163" t="s">
+      <c r="C239" s="26" t="s">
         <v>3775</v>
       </c>
-      <c r="D239" s="162" t="s">
+      <c r="D239" s="3" t="s">
         <v>2334</v>
       </c>
-      <c r="E239" s="164" t="s">
+      <c r="E239" s="67" t="s">
         <v>2335</v>
       </c>
-      <c r="F239" s="164" t="s">
+      <c r="F239" s="67" t="s">
         <v>2336</v>
       </c>
-      <c r="G239" s="162" t="s">
+      <c r="G239" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H239" s="165">
-        <v>0</v>
-      </c>
-      <c r="I239" s="166">
-        <v>0</v>
-      </c>
-      <c r="J239" s="166">
+      <c r="H239" s="5">
+        <v>0</v>
+      </c>
+      <c r="I239" s="68">
+        <v>0</v>
+      </c>
+      <c r="J239" s="68">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K239" s="167">
+      <c r="K239" s="69">
         <v>58</v>
       </c>
-      <c r="L239" s="166">
+      <c r="L239" s="68">
         <f t="shared" si="34"/>
         <v>203</v>
       </c>
-      <c r="M239" s="166">
+      <c r="M239" s="68">
         <f t="shared" si="35"/>
         <v>14.21</v>
       </c>
-      <c r="N239" s="168">
+      <c r="N239" s="6">
         <f t="shared" si="33"/>
         <v>217.21</v>
       </c>
-      <c r="O239" s="166">
+      <c r="O239" s="68">
         <f t="shared" si="28"/>
         <v>14.21</v>
       </c>
-      <c r="P239" s="166">
+      <c r="P239" s="68">
         <f t="shared" si="36"/>
         <v>217.21</v>
       </c>
-      <c r="Q239" s="166">
-        <v>0</v>
+      <c r="Q239" s="68">
+        <v>217.25</v>
       </c>
       <c r="R239" s="77"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A240" s="52">
         <v>236</v>
       </c>
@@ -83585,7 +83595,7 @@
         <v>8.75</v>
       </c>
       <c r="P245" s="68">
-        <f t="shared" ref="P245:P262" si="39">ROUNDDOWN(H245+I245+N245,2)</f>
+        <f t="shared" ref="P245:Q262" si="39">ROUNDDOWN(H245+I245+N245,2)</f>
         <v>133.75</v>
       </c>
       <c r="Q245" s="68">
@@ -84257,7 +84267,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A257" s="52">
         <v>253</v>
       </c>
@@ -84312,72 +84322,79 @@
         <f t="shared" si="39"/>
         <v>1355.69</v>
       </c>
-      <c r="Q257" s="68">
+      <c r="Q257" s="72">
+        <v>1355.75</v>
+      </c>
+      <c r="R257" s="77"/>
+      <c r="S257" s="31">
+        <f>SUM(Q257:Q258)</f>
         <v>1603</v>
       </c>
-      <c r="R257" s="77"/>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A258" s="161">
+      <c r="T257" s="68">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A258" s="52">
         <v>254</v>
       </c>
-      <c r="B258" s="162" t="s">
+      <c r="B258" s="3" t="s">
         <v>3837</v>
       </c>
-      <c r="C258" s="163" t="s">
+      <c r="C258" s="26" t="s">
         <v>3824</v>
       </c>
-      <c r="D258" s="169" t="s">
+      <c r="D258" s="170" t="s">
         <v>2246</v>
       </c>
-      <c r="E258" s="164" t="s">
+      <c r="E258" s="67" t="s">
         <v>2247</v>
       </c>
-      <c r="F258" s="164" t="s">
+      <c r="F258" s="67" t="s">
         <v>2235</v>
       </c>
-      <c r="G258" s="162" t="s">
+      <c r="G258" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H258" s="165">
-        <v>0</v>
-      </c>
-      <c r="I258" s="166">
-        <v>0</v>
-      </c>
-      <c r="J258" s="166">
+      <c r="H258" s="5">
+        <v>0</v>
+      </c>
+      <c r="I258" s="68">
+        <v>0</v>
+      </c>
+      <c r="J258" s="68">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K258" s="167">
+      <c r="K258" s="69">
         <v>66</v>
       </c>
-      <c r="L258" s="166">
+      <c r="L258" s="68">
         <f t="shared" si="40"/>
         <v>231</v>
       </c>
-      <c r="M258" s="166">
+      <c r="M258" s="68">
         <f t="shared" si="37"/>
         <v>16.170000000000002</v>
       </c>
-      <c r="N258" s="168">
+      <c r="N258" s="6">
         <f t="shared" si="38"/>
         <v>247.17</v>
       </c>
-      <c r="O258" s="166">
+      <c r="O258" s="68">
         <f t="shared" si="28"/>
         <v>16.170000000000002</v>
       </c>
-      <c r="P258" s="166">
+      <c r="P258" s="68">
         <f t="shared" si="39"/>
         <v>247.17</v>
       </c>
-      <c r="Q258" s="166">
-        <v>0</v>
+      <c r="Q258" s="68">
+        <v>247.25</v>
       </c>
       <c r="R258" s="77"/>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A259" s="52">
         <v>255</v>
       </c>
@@ -84432,72 +84449,79 @@
         <f t="shared" si="39"/>
         <v>1415.61</v>
       </c>
-      <c r="Q259" s="68">
+      <c r="Q259" s="72">
+        <v>1415.65</v>
+      </c>
+      <c r="R259" s="77"/>
+      <c r="S259" s="31">
+        <f>SUM(Q259:Q260)</f>
         <v>2850</v>
       </c>
-      <c r="R259" s="77"/>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A260" s="161">
+      <c r="T259" s="68">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A260" s="52">
         <v>256</v>
       </c>
-      <c r="B260" s="162" t="s">
+      <c r="B260" s="3" t="s">
         <v>3837</v>
       </c>
-      <c r="C260" s="163" t="s">
+      <c r="C260" s="26" t="s">
         <v>3826</v>
       </c>
-      <c r="D260" s="169" t="s">
+      <c r="D260" s="170" t="s">
         <v>2248</v>
       </c>
-      <c r="E260" s="164" t="s">
+      <c r="E260" s="67" t="s">
         <v>2247</v>
       </c>
-      <c r="F260" s="164" t="s">
+      <c r="F260" s="67" t="s">
         <v>2235</v>
       </c>
-      <c r="G260" s="162" t="s">
+      <c r="G260" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H260" s="165">
-        <v>0</v>
-      </c>
-      <c r="I260" s="166">
-        <v>0</v>
-      </c>
-      <c r="J260" s="166">
+      <c r="H260" s="5">
+        <v>0</v>
+      </c>
+      <c r="I260" s="68">
+        <v>0</v>
+      </c>
+      <c r="J260" s="68">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K260" s="167">
+      <c r="K260" s="69">
         <v>383</v>
       </c>
-      <c r="L260" s="166">
+      <c r="L260" s="68">
         <f t="shared" si="40"/>
         <v>1340.5</v>
       </c>
-      <c r="M260" s="166">
+      <c r="M260" s="68">
         <f t="shared" si="37"/>
         <v>93.83</v>
       </c>
-      <c r="N260" s="168">
+      <c r="N260" s="6">
         <f t="shared" si="38"/>
         <v>1434.33</v>
       </c>
-      <c r="O260" s="166">
+      <c r="O260" s="68">
         <f t="shared" si="28"/>
         <v>93.83</v>
       </c>
-      <c r="P260" s="166">
+      <c r="P260" s="68">
         <f t="shared" si="39"/>
         <v>1434.33</v>
       </c>
-      <c r="Q260" s="166">
-        <v>0</v>
+      <c r="Q260" s="68">
+        <v>1434.35</v>
       </c>
       <c r="R260" s="77"/>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A261" s="52">
         <v>257</v>
       </c>
@@ -84557,7 +84581,7 @@
       </c>
       <c r="R261" s="77"/>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A262" s="52">
         <v>258</v>
       </c>
@@ -84619,7 +84643,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A263" s="52">
         <v>259</v>
       </c>
@@ -84681,7 +84705,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A264" s="52">
         <v>260</v>
       </c>
@@ -84743,7 +84767,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A265" s="52">
         <v>261</v>
       </c>
@@ -84805,7 +84829,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A266" s="52">
         <v>262</v>
       </c>
@@ -84867,7 +84891,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A267" s="52">
         <v>263</v>
       </c>
@@ -84929,7 +84953,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A268" s="52">
         <v>264</v>
       </c>
@@ -84991,7 +85015,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A269" s="52">
         <v>265</v>
       </c>
@@ -85051,7 +85075,7 @@
       </c>
       <c r="R269" s="77"/>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A270" s="52">
         <v>266</v>
       </c>
@@ -85112,7 +85136,7 @@
       <c r="R270" s="77"/>
       <c r="S270" s="76"/>
     </row>
-    <row r="271" spans="1:19" ht="25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E271" s="81" t="s">
         <v>22</v>
       </c>
@@ -85150,7 +85174,7 @@
       </c>
       <c r="R271" s="87"/>
     </row>
-    <row r="272" spans="1:19" ht="25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:20" ht="25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="G272" s="76"/>
       <c r="H272" s="76"/>
       <c r="I272" s="88">
@@ -85226,6 +85250,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -85240,7 +85265,6 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -85251,8 +85275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:Q62"/>
+    <sheetView tabSelected="1" topLeftCell="B65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -85281,25 +85305,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="152" t="s">
         <v>3448</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
       <c r="R1" s="55"/>
       <c r="S1" s="97"/>
       <c r="T1" s="97"/>
@@ -85333,96 +85357,96 @@
       <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="146" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="98"/>
       <c r="G3" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="156" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="135"/>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="155" t="s">
+      <c r="L3" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="143" t="s">
+      <c r="M3" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="143" t="s">
+      <c r="N3" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="143" t="s">
+      <c r="O3" s="158" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="R3" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="160">
+      <c r="S3" s="169">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="158" t="s">
+      <c r="T3" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="159" t="s">
+      <c r="V3" s="168" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="137"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="99"/>
       <c r="G4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="152"/>
-      <c r="I4" s="154"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="157"/>
       <c r="J4" s="136"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
       <c r="P4" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="159"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="168"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="52">
@@ -89014,61 +89038,61 @@
       <c r="V60" s="76"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A61" s="161">
+      <c r="A61" s="137">
         <v>57</v>
       </c>
-      <c r="B61" s="162" t="s">
+      <c r="B61" s="138" t="s">
         <v>3712</v>
       </c>
-      <c r="C61" s="163" t="s">
+      <c r="C61" s="139" t="s">
         <v>3785</v>
       </c>
-      <c r="D61" s="169" t="s">
+      <c r="D61" s="145" t="s">
         <v>2787</v>
       </c>
-      <c r="E61" s="164" t="s">
+      <c r="E61" s="140" t="s">
         <v>2788</v>
       </c>
-      <c r="F61" s="164" t="s">
+      <c r="F61" s="140" t="s">
         <v>2789</v>
       </c>
-      <c r="G61" s="162" t="s">
+      <c r="G61" s="138" t="s">
         <v>3224</v>
       </c>
-      <c r="H61" s="165">
+      <c r="H61" s="141">
         <v>32</v>
       </c>
-      <c r="I61" s="166">
+      <c r="I61" s="142">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J61" s="166">
+      <c r="J61" s="142">
         <f t="shared" si="1"/>
         <v>34.24</v>
       </c>
-      <c r="K61" s="167">
-        <v>0</v>
-      </c>
-      <c r="L61" s="166">
+      <c r="K61" s="143">
+        <v>0</v>
+      </c>
+      <c r="L61" s="142">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M61" s="166">
+      <c r="M61" s="142">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N61" s="168">
+      <c r="N61" s="144">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O61" s="166">
+      <c r="O61" s="142">
         <f t="shared" si="2"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="P61" s="166">
+      <c r="P61" s="142">
         <f t="shared" si="3"/>
         <v>34.24</v>
       </c>
-      <c r="Q61" s="166">
+      <c r="Q61" s="142">
         <v>0</v>
       </c>
       <c r="R61" s="77"/>
@@ -89078,61 +89102,61 @@
       <c r="V61" s="76"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A62" s="161">
+      <c r="A62" s="137">
         <v>58</v>
       </c>
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="138" t="s">
         <v>3712</v>
       </c>
-      <c r="C62" s="163" t="s">
+      <c r="C62" s="139" t="s">
         <v>3786</v>
       </c>
-      <c r="D62" s="169" t="s">
+      <c r="D62" s="145" t="s">
         <v>2787</v>
       </c>
-      <c r="E62" s="164" t="s">
+      <c r="E62" s="140" t="s">
         <v>2788</v>
       </c>
-      <c r="F62" s="164" t="s">
+      <c r="F62" s="140" t="s">
         <v>2789</v>
       </c>
-      <c r="G62" s="162" t="s">
+      <c r="G62" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="165">
-        <v>0</v>
-      </c>
-      <c r="I62" s="166">
-        <v>0</v>
-      </c>
-      <c r="J62" s="166">
+      <c r="H62" s="141">
+        <v>0</v>
+      </c>
+      <c r="I62" s="142">
+        <v>0</v>
+      </c>
+      <c r="J62" s="142">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K62" s="167">
+      <c r="K62" s="143">
         <v>12</v>
       </c>
-      <c r="L62" s="166">
+      <c r="L62" s="142">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="M62" s="166">
+      <c r="M62" s="142">
         <f t="shared" si="4"/>
         <v>3.36</v>
       </c>
-      <c r="N62" s="168">
+      <c r="N62" s="144">
         <f t="shared" si="5"/>
         <v>51.36</v>
       </c>
-      <c r="O62" s="166">
+      <c r="O62" s="142">
         <f t="shared" si="2"/>
         <v>3.36</v>
       </c>
-      <c r="P62" s="166">
+      <c r="P62" s="142">
         <f t="shared" si="3"/>
         <v>51.36</v>
       </c>
-      <c r="Q62" s="166">
+      <c r="Q62" s="142">
         <v>0</v>
       </c>
       <c r="R62" s="77"/>
@@ -90950,6 +90974,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -90960,15 +90993,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
